--- a/partial/sliding_window_results_window_3.xlsx
+++ b/partial/sliding_window_results_window_3.xlsx
@@ -465,16 +465,16 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>29.35</v>
+        <v>29.34999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>28.88047081994445</v>
+        <v>29.78336143493652</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4695291800555488</v>
+        <v>0.4333614349365291</v>
       </c>
       <c r="E2" t="n">
-        <v>0.220457650923636</v>
+        <v>0.1878021332902476</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.37</v>
       </c>
       <c r="C3" t="n">
-        <v>28.79754100912948</v>
+        <v>29.6746883392334</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5724589908705227</v>
+        <v>0.3046883392333939</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3277092962284971</v>
+        <v>0.09283498406480371</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>29.54</v>
+        <v>29.53999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>28.72393905747945</v>
+        <v>29.21548271179199</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8160609425205472</v>
+        <v>-0.3245172882079999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6659554619075237</v>
+        <v>0.105311470345874</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.55</v>
       </c>
       <c r="C5" t="n">
-        <v>29.94445591304089</v>
+        <v>29.43997001647949</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3944559130408862</v>
+        <v>-0.110029983520505</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1555954673329192</v>
+        <v>0.0121065972735226</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.75</v>
       </c>
       <c r="C6" t="n">
-        <v>29.61782930945843</v>
+        <v>29.63873863220215</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1321706905415745</v>
+        <v>-0.1112613677978516</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01746909143823665</v>
+        <v>0.0123790919642488</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.84</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54245861807876</v>
+        <v>29.90313529968262</v>
       </c>
       <c r="D7" t="n">
-        <v>0.702458618078758</v>
+        <v>0.06313529968261378</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4934481101131183</v>
+        <v>0.003986066066013452</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.81</v>
       </c>
       <c r="C8" t="n">
-        <v>30.40697447332623</v>
+        <v>29.88266563415527</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5969744733262274</v>
+        <v>0.07266563415527116</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3563785218031266</v>
+        <v>0.005280294387187711</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.92</v>
       </c>
       <c r="C9" t="n">
-        <v>30.21982061576142</v>
+        <v>29.90141868591309</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2998206157614156</v>
+        <v>-0.01858131408691577</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08989240163555441</v>
+        <v>0.0003452652331966143</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.98</v>
       </c>
       <c r="C10" t="n">
-        <v>29.49073496471589</v>
+        <v>29.95934104919434</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.489265035284113</v>
+        <v>-0.02065895080566804</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2393802747515644</v>
+        <v>0.0004267922483910122</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>30.04</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>29.76432767218155</v>
+        <v>30.1280574798584</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2756723278184516</v>
+        <v>0.0880574798584064</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07599523232484386</v>
+        <v>0.007754119759013648</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>30.21</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>29.2289763240952</v>
+        <v>30.17116355895996</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.981023675904801</v>
+        <v>-0.03883644104004702</v>
       </c>
       <c r="E12" t="n">
-        <v>0.962407452685768</v>
+        <v>0.001508269152657048</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.22</v>
       </c>
       <c r="C13" t="n">
-        <v>29.64752027789943</v>
+        <v>30.2900447845459</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5724797221005709</v>
+        <v>0.07004478454589957</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3277330322163468</v>
+        <v>0.004906271842081492</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.38</v>
       </c>
       <c r="C14" t="n">
-        <v>29.41012243268786</v>
+        <v>30.34025382995605</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9698775673121389</v>
+        <v>-0.03974617004394077</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9406624955753126</v>
+        <v>0.001579758033161854</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.44</v>
       </c>
       <c r="C15" t="n">
-        <v>30.14218121153088</v>
+        <v>30.54611778259277</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2978187884691224</v>
+        <v>0.1061177825927757</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08869603076521584</v>
+        <v>0.01126098378240761</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.48</v>
       </c>
       <c r="C16" t="n">
-        <v>30.17853079185805</v>
+        <v>30.41673851013184</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3014692081419525</v>
+        <v>-0.06326148986816804</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09088368345773591</v>
+        <v>0.004002016100340328</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.69</v>
       </c>
       <c r="C17" t="n">
-        <v>30.47421113686185</v>
+        <v>30.42951011657715</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2157888631381546</v>
+        <v>-0.2604898834228493</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04656483345445721</v>
+        <v>0.06785497936564962</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.75</v>
       </c>
       <c r="C18" t="n">
-        <v>30.0327836856211</v>
+        <v>30.52583885192871</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7172163143789021</v>
+        <v>-0.2241611480712891</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5143992416112562</v>
+        <v>0.05024822030463838</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.94</v>
       </c>
       <c r="C19" t="n">
-        <v>30.48739069386338</v>
+        <v>30.64208030700684</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4526093061366225</v>
+        <v>-0.2979196929931618</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2048551840014749</v>
+        <v>0.08875614347313977</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.95</v>
       </c>
       <c r="C20" t="n">
-        <v>30.80707348865126</v>
+        <v>30.75008964538574</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1429265113487403</v>
+        <v>-0.1999103546142607</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0204279876463216</v>
+        <v>0.03996414988199944</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.02</v>
       </c>
       <c r="C21" t="n">
-        <v>31.47541242433202</v>
+        <v>31.1014232635498</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4554124243320246</v>
+        <v>0.08142326354980867</v>
       </c>
       <c r="E21" t="n">
-        <v>0.207400476235972</v>
+        <v>0.006629747847101601</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.12</v>
       </c>
       <c r="C22" t="n">
-        <v>31.90392191954129</v>
+        <v>31.24580955505371</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7839219195412852</v>
+        <v>0.1258095550537064</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6145335759372932</v>
+        <v>0.01582804414281158</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.28</v>
       </c>
       <c r="C23" t="n">
-        <v>32.07101273992203</v>
+        <v>31.31645774841309</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7910127399220315</v>
+        <v>0.0364577484130848</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6257011547189594</v>
+        <v>0.001329167419351787</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.38</v>
       </c>
       <c r="C24" t="n">
-        <v>31.91345175328856</v>
+        <v>31.22794914245605</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5334517532885563</v>
+        <v>-0.1520508575439408</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2845707730866348</v>
+        <v>0.02311946327984777</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.58</v>
       </c>
       <c r="C25" t="n">
-        <v>32.31898828666998</v>
+        <v>31.41512870788574</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7389882866699793</v>
+        <v>-0.1648712921142561</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5461036878354315</v>
+        <v>0.02718254296342437</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>31.65</v>
+        <v>31.65000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>32.11056598256215</v>
+        <v>31.88678550720215</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4605659825621515</v>
+        <v>0.2367855072021428</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2121210242934401</v>
+        <v>0.056067376420976</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.88</v>
       </c>
       <c r="C27" t="n">
-        <v>32.74997155045387</v>
+        <v>32.44120407104492</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8699715504538723</v>
+        <v>0.5612040710449264</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7568504985991145</v>
+        <v>0.3149500093573988</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.28</v>
       </c>
       <c r="C28" t="n">
-        <v>32.50279706675092</v>
+        <v>32.40054702758789</v>
       </c>
       <c r="D28" t="n">
-        <v>0.222797066750914</v>
+        <v>0.1205470275878895</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04963853295281125</v>
+        <v>0.01453158586027539</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.45</v>
       </c>
       <c r="C29" t="n">
-        <v>32.61164882504537</v>
+        <v>32.50535202026367</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1616488250453685</v>
+        <v>0.05535202026366903</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02613034263854815</v>
+        <v>0.003063846147269627</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>21</v>
       </c>
       <c r="B30" t="n">
-        <v>32.85</v>
+        <v>32.84999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>32.87701108739923</v>
+        <v>32.76932907104492</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02701108739923086</v>
+        <v>-0.08067092895507244</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0007295988424888881</v>
+        <v>0.006507798778474345</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>32.9</v>
+        <v>32.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>33.00066775366493</v>
+        <v>32.95795059204102</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1006677536649292</v>
+        <v>0.05795059204100994</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01013399662794287</v>
+        <v>0.003358271117903565</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>19</v>
       </c>
       <c r="B32" t="n">
-        <v>33.1</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>32.97099385167881</v>
+        <v>32.89803695678711</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1290061483211886</v>
+        <v>-0.2019630432128849</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01664258630466852</v>
+        <v>0.04078907082380963</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>18</v>
       </c>
       <c r="B33" t="n">
-        <v>33.4</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>33.9102622668428</v>
+        <v>33.65871047973633</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5102622668428012</v>
+        <v>0.2587104797363224</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2603675809635541</v>
+        <v>0.0669311123253981</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.7</v>
       </c>
       <c r="C34" t="n">
-        <v>33.79824511495674</v>
+        <v>33.65222549438477</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09824511495673249</v>
+        <v>-0.04777450561523722</v>
       </c>
       <c r="E34" t="n">
-        <v>0.009652102612861582</v>
+        <v>0.002282403386780332</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>34.1</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>33.92622822892227</v>
+        <v>33.83626174926758</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1737717710777318</v>
+        <v>-0.2637382507324162</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03019662842349162</v>
+        <v>0.06955786489939483</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>34.4</v>
+        <v>34.40000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>34.03392978109852</v>
+        <v>34.3889045715332</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3660702189014771</v>
+        <v>-0.01109542846680256</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1340074051665753</v>
+        <v>0.0001231085328619326</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>14</v>
       </c>
       <c r="B37" t="n">
-        <v>34.9</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>34.58591765730413</v>
+        <v>35.00925064086914</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.314082342695869</v>
+        <v>0.1092506408691349</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09864771799332529</v>
+        <v>0.0119357025303167</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.3</v>
       </c>
       <c r="C38" t="n">
-        <v>35.70262508082213</v>
+        <v>35.71824264526367</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4026250808221334</v>
+        <v>0.4182426452636747</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1621069557070295</v>
+        <v>0.174926910317156</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.7</v>
       </c>
       <c r="C39" t="n">
-        <v>36.10905442207207</v>
+        <v>35.99924087524414</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4090544220720673</v>
+        <v>0.2992408752441378</v>
       </c>
       <c r="E39" t="n">
-        <v>0.167325520216713</v>
+        <v>0.08954510141687763</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.3</v>
       </c>
       <c r="C40" t="n">
-        <v>36.26659397241595</v>
+        <v>36.01230239868164</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.03340602758404998</v>
+        <v>-0.2876976013183565</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001115962678946308</v>
+        <v>0.08276990980433602</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.8</v>
       </c>
       <c r="C41" t="n">
-        <v>36.88279370718733</v>
+        <v>36.59271621704102</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08279370718733503</v>
+        <v>-0.2072837829589815</v>
       </c>
       <c r="E41" t="n">
-        <v>0.006854797949822172</v>
+        <v>0.04296656667778617</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.3</v>
       </c>
       <c r="C42" t="n">
-        <v>36.91183076134275</v>
+        <v>37.18803024291992</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.3881692386572482</v>
+        <v>-0.1119697570800753</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1506753578397477</v>
+        <v>0.01253722650057107</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>37.9</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>37.88692681021995</v>
+        <v>37.9639778137207</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.01307318978004446</v>
+        <v>0.06397781372069744</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0001709082910250589</v>
+        <v>0.004093160648480262</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.5</v>
       </c>
       <c r="C44" t="n">
-        <v>38.50346492903321</v>
+        <v>38.41967391967773</v>
       </c>
       <c r="D44" t="n">
-        <v>0.003464929033214048</v>
+        <v>-0.08032608032226562</v>
       </c>
       <c r="E44" t="n">
-        <v>1.200573320520964e-05</v>
+        <v>0.006452279179939069</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="n">
-        <v>38.9</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>38.8761424283309</v>
+        <v>39.0008659362793</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.02385757166909741</v>
+        <v>0.1008659362792912</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0005691837259461194</v>
+        <v>0.01017393710149803</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>39.4</v>
+        <v>39.40000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>39.2557687270679</v>
+        <v>39.5327262878418</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1442312729321031</v>
+        <v>0.1327262878417912</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02080266009161483</v>
+        <v>0.01761626748426201</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>39.9</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>39.56415861988053</v>
+        <v>39.54935836791992</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3358413801194686</v>
+        <v>-0.3506416320800838</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1127894326005494</v>
+        <v>0.1229495541477849</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>3</v>
       </c>
       <c r="B48" t="n">
-        <v>40.1</v>
+        <v>40.09999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>39.79025351510796</v>
+        <v>40.00116348266602</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3097464848920453</v>
+        <v>-0.09883651733397869</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09594288490297802</v>
+        <v>0.00976865715870987</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>40.6</v>
+        <v>40.59999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>40.01247792801502</v>
+        <v>40.52347183227539</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.5875220719849779</v>
+        <v>-0.07652816772460369</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3451821850695215</v>
+        <v>0.005856560455285074</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>40.9</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>40.31626741864778</v>
+        <v>40.82853317260742</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.5837325813522227</v>
+        <v>-0.07146682739258381</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3407437265321293</v>
+        <v>0.005107507417561367</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>41.2</v>
+        <v>41.20000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>41.48393709049734</v>
+        <v>41.49383163452148</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2839370904973393</v>
+        <v>0.2938316345214744</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08062027136009424</v>
+        <v>0.08633702944556132</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1.879335802740034</v>
+        <v>0.1741580963134552</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>11.20725098580535</v>
+        <v>2.03359539015778</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.2241450197161069</v>
+        <v>0.0406719078031556</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_3.xlsx
+++ b/partial/sliding_window_results_window_3.xlsx
@@ -468,13 +468,13 @@
         <v>29.34999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>29.78336143493652</v>
+        <v>29.76476860046387</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4333614349365291</v>
+        <v>0.4147686004638729</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1878021332902476</v>
+        <v>0.1720329919307598</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.37</v>
       </c>
       <c r="C3" t="n">
-        <v>29.6746883392334</v>
+        <v>29.66201591491699</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3046883392333939</v>
+        <v>0.2920159149169876</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09283498406480371</v>
+        <v>0.08527329456480537</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.53999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>29.21548271179199</v>
+        <v>29.24102592468262</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3245172882079999</v>
+        <v>-0.2989740753173749</v>
       </c>
       <c r="E4" t="n">
-        <v>0.105311470345874</v>
+        <v>0.08938549771187933</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.55</v>
       </c>
       <c r="C5" t="n">
-        <v>29.43997001647949</v>
+        <v>29.47066307067871</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.110029983520505</v>
+        <v>-0.07933692932128622</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0121065972735226</v>
+        <v>0.006294348354130765</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.75</v>
       </c>
       <c r="C6" t="n">
-        <v>29.63873863220215</v>
+        <v>29.64986228942871</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1112613677978516</v>
+        <v>-0.1001377105712891</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0123790919642488</v>
+        <v>0.01002756107845926</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.84</v>
       </c>
       <c r="C7" t="n">
-        <v>29.90313529968262</v>
+        <v>29.90702629089355</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06313529968261378</v>
+        <v>0.06702629089355128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003986066066013452</v>
+        <v>0.004492523670946955</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.81</v>
       </c>
       <c r="C8" t="n">
-        <v>29.88266563415527</v>
+        <v>29.88336753845215</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07266563415527116</v>
+        <v>0.07336753845214616</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005280294387187711</v>
+        <v>0.005382795698527146</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.92</v>
       </c>
       <c r="C9" t="n">
-        <v>29.90141868591309</v>
+        <v>29.90064811706543</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01858131408691577</v>
+        <v>-0.01935188293457202</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0003452652331966143</v>
+        <v>0.0003744953731133797</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.98</v>
       </c>
       <c r="C10" t="n">
-        <v>29.95934104919434</v>
+        <v>29.94220542907715</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02065895080566804</v>
+        <v>-0.03779457092285554</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004267922483910122</v>
+        <v>0.001428429591242758</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.03999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1280574798584</v>
+        <v>30.10815238952637</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0880574798584064</v>
+        <v>0.06815238952637515</v>
       </c>
       <c r="E11" t="n">
-        <v>0.007754119759013648</v>
+        <v>0.004644748198154768</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.21000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>30.17116355895996</v>
+        <v>30.14729118347168</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03883644104004702</v>
+        <v>-0.06270881652832827</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001508269152657048</v>
+        <v>0.003932395670383537</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.22</v>
       </c>
       <c r="C13" t="n">
-        <v>30.2900447845459</v>
+        <v>30.26703453063965</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07004478454589957</v>
+        <v>0.04703453063964957</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004906271842081492</v>
+        <v>0.002212247072492135</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.38</v>
       </c>
       <c r="C14" t="n">
-        <v>30.34025382995605</v>
+        <v>30.31423759460449</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03974617004394077</v>
+        <v>-0.06576240539550327</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001579758033161854</v>
+        <v>0.004324693963402517</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.44</v>
       </c>
       <c r="C15" t="n">
-        <v>30.54611778259277</v>
+        <v>30.51652336120605</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1061177825927757</v>
+        <v>0.07652336120605696</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01126098378240761</v>
+        <v>0.005855824810272663</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.48</v>
       </c>
       <c r="C16" t="n">
-        <v>30.41673851013184</v>
+        <v>30.40588188171387</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.06326148986816804</v>
+        <v>-0.07411811828613679</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004002016100340328</v>
+        <v>0.005493495458277765</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.69</v>
       </c>
       <c r="C17" t="n">
-        <v>30.42951011657715</v>
+        <v>30.4287166595459</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2604898834228493</v>
+        <v>-0.2612833404540993</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06785497936564962</v>
+        <v>0.06826898399885276</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.75</v>
       </c>
       <c r="C18" t="n">
-        <v>30.52583885192871</v>
+        <v>30.51914024353027</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2241611480712891</v>
+        <v>-0.2308597564697266</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05024822030463838</v>
+        <v>0.05329622715726146</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.94</v>
       </c>
       <c r="C19" t="n">
-        <v>30.64208030700684</v>
+        <v>30.63351249694824</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2979196929931618</v>
+        <v>-0.3064875030517555</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08875614347313977</v>
+        <v>0.09393458952689986</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.95</v>
       </c>
       <c r="C20" t="n">
-        <v>30.75008964538574</v>
+        <v>30.75038719177246</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1999103546142607</v>
+        <v>-0.1996128082275419</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03996414988199944</v>
+        <v>0.03984527320848542</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.02</v>
       </c>
       <c r="C21" t="n">
-        <v>31.1014232635498</v>
+        <v>31.0843563079834</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08142326354980867</v>
+        <v>0.06435630798340242</v>
       </c>
       <c r="E21" t="n">
-        <v>0.006629747847101601</v>
+        <v>0.004141734377254546</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.12</v>
       </c>
       <c r="C22" t="n">
-        <v>31.24580955505371</v>
+        <v>31.23776054382324</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1258095550537064</v>
+        <v>0.1177605438232376</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01582804414281158</v>
+        <v>0.01386754568154467</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.28</v>
       </c>
       <c r="C23" t="n">
-        <v>31.31645774841309</v>
+        <v>31.29952812194824</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0364577484130848</v>
+        <v>0.01952812194824105</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001329167419351787</v>
+        <v>0.0003813475468253739</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.38</v>
       </c>
       <c r="C24" t="n">
-        <v>31.22794914245605</v>
+        <v>31.24122428894043</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1520508575439408</v>
+        <v>-0.1387757110595658</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02311946327984777</v>
+        <v>0.01925869798008809</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.58</v>
       </c>
       <c r="C25" t="n">
-        <v>31.41512870788574</v>
+        <v>31.42943382263184</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1648712921142561</v>
+        <v>-0.1505661773681624</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02718254296342437</v>
+        <v>0.02267017376726093</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.65000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>31.88678550720215</v>
+        <v>31.87554740905762</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2367855072021428</v>
+        <v>0.2255474090576115</v>
       </c>
       <c r="E26" t="n">
-        <v>0.056067376420976</v>
+        <v>0.05087163373260153</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.88</v>
       </c>
       <c r="C27" t="n">
-        <v>32.44120407104492</v>
+        <v>32.43188095092773</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5612040710449264</v>
+        <v>0.5518809509277389</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3149500093573988</v>
+        <v>0.3045725839969054</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.28</v>
       </c>
       <c r="C28" t="n">
-        <v>32.40054702758789</v>
+        <v>32.4143180847168</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1205470275878895</v>
+        <v>0.1343180847167957</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01453158586027539</v>
+        <v>0.01804134788198832</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.45</v>
       </c>
       <c r="C29" t="n">
-        <v>32.50535202026367</v>
+        <v>32.51113510131836</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05535202026366903</v>
+        <v>0.06113510131835653</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003063846147269627</v>
+        <v>0.003737500613205719</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.84999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>32.76932907104492</v>
+        <v>32.76684188842773</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.08067092895507244</v>
+        <v>-0.08315811157225994</v>
       </c>
       <c r="E30" t="n">
-        <v>0.006507798778474345</v>
+        <v>0.006915271520264433</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>32.95795059204102</v>
+        <v>32.94113540649414</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05795059204100994</v>
+        <v>0.04113540649413494</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003358271117903565</v>
+        <v>0.001692121667437719</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>32.89803695678711</v>
+        <v>32.88251876831055</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2019630432128849</v>
+        <v>-0.2174812316894474</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04078907082380963</v>
+        <v>0.04729808613715912</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.40000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>33.65871047973633</v>
+        <v>33.62924575805664</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2587104797363224</v>
+        <v>0.2292457580566349</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0669311123253981</v>
+        <v>0.05255361758696121</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.7</v>
       </c>
       <c r="C34" t="n">
-        <v>33.65222549438477</v>
+        <v>33.6300163269043</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.04777450561523722</v>
+        <v>-0.06998367309570597</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002282403386780332</v>
+        <v>0.004897714499966639</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.09999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>33.83626174926758</v>
+        <v>33.81135940551758</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2637382507324162</v>
+        <v>-0.2886405944824162</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06955786489939483</v>
+        <v>0.08331339278316263</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.40000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>34.3889045715332</v>
+        <v>34.38940048217773</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.01109542846680256</v>
+        <v>-0.01059951782227131</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0001231085328619326</v>
+        <v>0.0001123497780646471</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.90000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>35.00925064086914</v>
+        <v>35.00349044799805</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1092506408691349</v>
+        <v>0.1034904479980412</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0119357025303167</v>
+        <v>0.01071027282683527</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.3</v>
       </c>
       <c r="C38" t="n">
-        <v>35.71824264526367</v>
+        <v>35.74145889282227</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4182426452636747</v>
+        <v>0.4414588928222685</v>
       </c>
       <c r="E38" t="n">
-        <v>0.174926910317156</v>
+        <v>0.1948859540518631</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.7</v>
       </c>
       <c r="C39" t="n">
-        <v>35.99924087524414</v>
+        <v>36.01750564575195</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2992408752441378</v>
+        <v>0.3175056457519503</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08954510141687763</v>
+        <v>0.1008098350843629</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.3</v>
       </c>
       <c r="C40" t="n">
-        <v>36.01230239868164</v>
+        <v>36.06560897827148</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2876976013183565</v>
+        <v>-0.2343910217285128</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08276990980433602</v>
+        <v>0.05493915106693615</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.8</v>
       </c>
       <c r="C41" t="n">
-        <v>36.59271621704102</v>
+        <v>36.63277816772461</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2072837829589815</v>
+        <v>-0.1672218322753878</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04296656667778617</v>
+        <v>0.02796314118953792</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.3</v>
       </c>
       <c r="C42" t="n">
-        <v>37.18803024291992</v>
+        <v>37.19817733764648</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1119697570800753</v>
+        <v>-0.1018226623535128</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01253722650057107</v>
+        <v>0.01036785456875747</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>37.9639778137207</v>
+        <v>37.96592330932617</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06397781372069744</v>
+        <v>0.06592330932616619</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004093160648480262</v>
+        <v>0.00434588271251339</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.5</v>
       </c>
       <c r="C44" t="n">
-        <v>38.41967391967773</v>
+        <v>38.4224739074707</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.08032608032226562</v>
+        <v>-0.07752609252929688</v>
       </c>
       <c r="E44" t="n">
-        <v>0.006452279179939069</v>
+        <v>0.006010295022861101</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>39.0008659362793</v>
+        <v>38.96990585327148</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1008659362792912</v>
+        <v>0.06990585327147869</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01017393710149803</v>
+        <v>0.004886828321613508</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.40000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>39.5327262878418</v>
+        <v>39.49533462524414</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1327262878417912</v>
+        <v>0.09533462524413494</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01761626748426201</v>
+        <v>0.009088690770439651</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>39.54935836791992</v>
+        <v>39.50455093383789</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3506416320800838</v>
+        <v>-0.3954490661621151</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1229495541477849</v>
+        <v>0.1563799639284889</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.09999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>40.00116348266602</v>
+        <v>39.98147201538086</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.09883651733397869</v>
+        <v>-0.1185279846191349</v>
       </c>
       <c r="E48" t="n">
-        <v>0.00976865715870987</v>
+        <v>0.01404888313787389</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.59999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>40.52347183227539</v>
+        <v>40.49603652954102</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.07652816772460369</v>
+        <v>-0.1039634704589787</v>
       </c>
       <c r="E49" t="n">
-        <v>0.005856560455285074</v>
+        <v>0.01080840318987493</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.90000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>40.82853317260742</v>
+        <v>40.82080459594727</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.07146682739258381</v>
+        <v>-0.07919540405274006</v>
       </c>
       <c r="E50" t="n">
-        <v>0.005107507417561367</v>
+        <v>0.006271912023076757</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.20000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>41.49383163452148</v>
+        <v>41.51208877563477</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2938316345214744</v>
+        <v>0.3120887756347557</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08633702944556132</v>
+        <v>0.09739940387720086</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.1741580963134552</v>
+        <v>-0.0842266082763885</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>2.03359539015778</v>
+        <v>1.999742008361274</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.0406719078031556</v>
+        <v>0.03999484016722549</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_3.xlsx
+++ b/partial/sliding_window_results_window_3.xlsx
@@ -468,13 +468,13 @@
         <v>29.35</v>
       </c>
       <c r="C2" t="n">
-        <v>28.88047081994445</v>
+        <v>30.08906540050407</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4695291800555488</v>
+        <v>0.7390654005040673</v>
       </c>
       <c r="E2" t="n">
-        <v>0.220457650923636</v>
+        <v>0.5462176662222374</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.37</v>
       </c>
       <c r="C3" t="n">
-        <v>28.79754100912948</v>
+        <v>29.78556385453234</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5724589908705227</v>
+        <v>0.4155638545323406</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3277092962284971</v>
+        <v>0.1726933171937763</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.54</v>
       </c>
       <c r="C4" t="n">
-        <v>28.72393905747945</v>
+        <v>29.2700097296191</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8160609425205472</v>
+        <v>-0.2699902703808945</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6659554619075237</v>
+        <v>0.07289474610034853</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.55</v>
       </c>
       <c r="C5" t="n">
-        <v>29.94445591304089</v>
+        <v>29.82163104762523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3944559130408862</v>
+        <v>0.271631047625231</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1555954673329192</v>
+        <v>0.07378342603398054</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.75</v>
       </c>
       <c r="C6" t="n">
-        <v>29.61782930945843</v>
+        <v>29.50887915476766</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1321706905415745</v>
+        <v>-0.2411208452323379</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01746909143823665</v>
+        <v>0.05813926200555704</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.84</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54245861807876</v>
+        <v>30.0574479233339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.702458618078758</v>
+        <v>0.2174479233338964</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4934481101131183</v>
+        <v>0.04728359936222409</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.81</v>
       </c>
       <c r="C8" t="n">
-        <v>30.40697447332623</v>
+        <v>29.93957089088588</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5969744733262274</v>
+        <v>0.1295708908858764</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3563785218031266</v>
+        <v>0.01678861576495968</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.92</v>
       </c>
       <c r="C9" t="n">
-        <v>30.21982061576142</v>
+        <v>29.68718008544232</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2998206157614156</v>
+        <v>-0.2328199145576804</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08989240163555441</v>
+        <v>0.05420511261464558</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.98</v>
       </c>
       <c r="C10" t="n">
-        <v>29.49073496471589</v>
+        <v>29.61174624372592</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.489265035284113</v>
+        <v>-0.3682537562740791</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2393802747515644</v>
+        <v>0.1356108290099688</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.04</v>
       </c>
       <c r="C11" t="n">
-        <v>29.76432767218155</v>
+        <v>29.61864572433147</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2756723278184516</v>
+        <v>-0.4213542756685307</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07599523232484386</v>
+        <v>0.1775394256241521</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.21</v>
       </c>
       <c r="C12" t="n">
-        <v>29.2289763240952</v>
+        <v>29.69651013084202</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.981023675904801</v>
+        <v>-0.5134898691579828</v>
       </c>
       <c r="E12" t="n">
-        <v>0.962407452685768</v>
+        <v>0.2636718457278823</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.22</v>
       </c>
       <c r="C13" t="n">
-        <v>29.64752027789943</v>
+        <v>29.9117261406573</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5724797221005709</v>
+        <v>-0.3082738593426946</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3277330322163468</v>
+        <v>0.09503277235403944</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.38</v>
       </c>
       <c r="C14" t="n">
-        <v>29.41012243268786</v>
+        <v>30.20390420453156</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9698775673121389</v>
+        <v>-0.1760957954684379</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9406624955753126</v>
+        <v>0.03100972918166191</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.44</v>
       </c>
       <c r="C15" t="n">
-        <v>30.14218121153088</v>
+        <v>30.46567407497348</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2978187884691224</v>
+        <v>0.02567407497347673</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08869603076521584</v>
+        <v>0.0006591581257437044</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.48</v>
       </c>
       <c r="C16" t="n">
-        <v>30.17853079185805</v>
+        <v>30.22834259137082</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3014692081419525</v>
+        <v>-0.2516574086291818</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09088368345773591</v>
+        <v>0.06333145131795501</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.69</v>
       </c>
       <c r="C17" t="n">
-        <v>30.47421113686185</v>
+        <v>30.26397303977103</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2157888631381546</v>
+        <v>-0.4260269602289668</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04656483345445721</v>
+        <v>0.1814989708419337</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.75</v>
       </c>
       <c r="C18" t="n">
-        <v>30.0327836856211</v>
+        <v>30.78538835040724</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7172163143789021</v>
+        <v>0.03538835040723853</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5143992416112562</v>
+        <v>0.0012523353445455</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.94</v>
       </c>
       <c r="C19" t="n">
-        <v>30.48739069386338</v>
+        <v>30.67079586766802</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4526093061366225</v>
+        <v>-0.2692041323319856</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2048551840014749</v>
+        <v>0.07247086486461721</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.95</v>
       </c>
       <c r="C20" t="n">
-        <v>30.80707348865126</v>
+        <v>30.81323862459335</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1429265113487403</v>
+        <v>-0.1367613754066461</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0204279876463216</v>
+        <v>0.01870367380311759</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.02</v>
       </c>
       <c r="C21" t="n">
-        <v>31.47541242433202</v>
+        <v>31.05625979610119</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4554124243320246</v>
+        <v>0.03625979610119501</v>
       </c>
       <c r="E21" t="n">
-        <v>0.207400476235972</v>
+        <v>0.001314772813300237</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.12</v>
       </c>
       <c r="C22" t="n">
-        <v>31.90392191954129</v>
+        <v>31.21386468554301</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7839219195412852</v>
+        <v>0.0938646855430072</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6145335759372932</v>
+        <v>0.008810579192087624</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.28</v>
       </c>
       <c r="C23" t="n">
-        <v>32.07101273992203</v>
+        <v>31.1276494698628</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7910127399220315</v>
+        <v>-0.1523505301372055</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6257011547189594</v>
+        <v>0.02321068403308755</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.38</v>
       </c>
       <c r="C24" t="n">
-        <v>31.91345175328856</v>
+        <v>31.05959569874924</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5334517532885563</v>
+        <v>-0.3204043012507576</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2845707730866348</v>
+        <v>0.1026589162599862</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.58</v>
       </c>
       <c r="C25" t="n">
-        <v>32.31898828666998</v>
+        <v>31.31717661401767</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7389882866699793</v>
+        <v>-0.2628233859823261</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5461036878354315</v>
+        <v>0.06907613221921478</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.65</v>
       </c>
       <c r="C26" t="n">
-        <v>32.11056598256215</v>
+        <v>31.71826208678449</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4605659825621515</v>
+        <v>0.06826208678449319</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2121210242934401</v>
+        <v>0.00465971249217368</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.88</v>
       </c>
       <c r="C27" t="n">
-        <v>32.74997155045387</v>
+        <v>32.51659351030031</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8699715504538723</v>
+        <v>0.6365935103003117</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7568504985991145</v>
+        <v>0.4052512973564731</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.28</v>
       </c>
       <c r="C28" t="n">
-        <v>32.50279706675092</v>
+        <v>32.51662862662089</v>
       </c>
       <c r="D28" t="n">
-        <v>0.222797066750914</v>
+        <v>0.2366286266208846</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04963853295281125</v>
+        <v>0.055993106936486</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.45</v>
       </c>
       <c r="C29" t="n">
-        <v>32.61164882504537</v>
+        <v>32.8520766034088</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1616488250453685</v>
+        <v>0.4020766034088012</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02613034263854815</v>
+        <v>0.1616655950087584</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.85</v>
       </c>
       <c r="C30" t="n">
-        <v>32.87701108739923</v>
+        <v>33.22228952033154</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02701108739923086</v>
+        <v>0.3722895203315417</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0007295988424888881</v>
+        <v>0.1385994869486894</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.9</v>
       </c>
       <c r="C31" t="n">
-        <v>33.00066775366493</v>
+        <v>33.27917826661842</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1006677536649292</v>
+        <v>0.3791782666184176</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01013399662794287</v>
+        <v>0.1437761578757478</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.1</v>
       </c>
       <c r="C32" t="n">
-        <v>32.97099385167881</v>
+        <v>33.34962080842794</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1290061483211886</v>
+        <v>0.2496208084279417</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01664258630466852</v>
+        <v>0.06231054800021914</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.4</v>
       </c>
       <c r="C33" t="n">
-        <v>33.9102622668428</v>
+        <v>33.76405795937816</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5102622668428012</v>
+        <v>0.3640579593781652</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2603675809635541</v>
+        <v>0.1325381977865938</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.7</v>
       </c>
       <c r="C34" t="n">
-        <v>33.79824511495674</v>
+        <v>33.76123245485297</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09824511495673249</v>
+        <v>0.06123245485296991</v>
       </c>
       <c r="E34" t="n">
-        <v>0.009652102612861582</v>
+        <v>0.003749413527320998</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.1</v>
       </c>
       <c r="C35" t="n">
-        <v>33.92622822892227</v>
+        <v>33.83241791371334</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1737717710777318</v>
+        <v>-0.2675820862866587</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03019662842349162</v>
+        <v>0.07160017290152086</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.4</v>
       </c>
       <c r="C36" t="n">
-        <v>34.03392978109852</v>
+        <v>34.22622927822735</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3660702189014771</v>
+        <v>-0.1737707217726481</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1340074051665753</v>
+        <v>0.03019626374538707</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.9</v>
       </c>
       <c r="C37" t="n">
-        <v>34.58591765730413</v>
+        <v>34.4503028803531</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.314082342695869</v>
+        <v>-0.4496971196468991</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09864771799332529</v>
+        <v>0.2022274994187175</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.3</v>
       </c>
       <c r="C38" t="n">
-        <v>35.70262508082213</v>
+        <v>35.51427435106902</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4026250808221334</v>
+        <v>0.2142743510690224</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1621069557070295</v>
+        <v>0.04591349752605065</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.7</v>
       </c>
       <c r="C39" t="n">
-        <v>36.10905442207207</v>
+        <v>35.78944032712945</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4090544220720673</v>
+        <v>0.08944032712945216</v>
       </c>
       <c r="E39" t="n">
-        <v>0.167325520216713</v>
+        <v>0.007999572117023415</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.3</v>
       </c>
       <c r="C40" t="n">
-        <v>36.26659397241595</v>
+        <v>36.07524671403826</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.03340602758404998</v>
+        <v>-0.2247532859617394</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001115962678946308</v>
+        <v>0.0505140395505994</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.8</v>
       </c>
       <c r="C41" t="n">
-        <v>36.88279370718733</v>
+        <v>36.71440912003118</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08279370718733503</v>
+        <v>-0.08559087996881232</v>
       </c>
       <c r="E41" t="n">
-        <v>0.006854797949822172</v>
+        <v>0.007325798733835638</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.3</v>
       </c>
       <c r="C42" t="n">
-        <v>36.91183076134275</v>
+        <v>36.80509697398391</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.3881692386572482</v>
+        <v>-0.4949030260160896</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1506753578397477</v>
+        <v>0.2449290051598823</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.9</v>
       </c>
       <c r="C43" t="n">
-        <v>37.88692681021995</v>
+        <v>37.9356016899136</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.01307318978004446</v>
+        <v>0.03560168991360513</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0001709082910250589</v>
+        <v>0.001267480324704493</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.5</v>
       </c>
       <c r="C44" t="n">
-        <v>38.50346492903321</v>
+        <v>38.71469226868126</v>
       </c>
       <c r="D44" t="n">
-        <v>0.003464929033214048</v>
+        <v>0.2146922686812616</v>
       </c>
       <c r="E44" t="n">
-        <v>1.200573320520964e-05</v>
+        <v>0.04609277023150701</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.9</v>
       </c>
       <c r="C45" t="n">
-        <v>38.8761424283309</v>
+        <v>39.11247680791239</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.02385757166909741</v>
+        <v>0.2124768079123882</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0005691837259461194</v>
+        <v>0.04514639390063792</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.4</v>
       </c>
       <c r="C46" t="n">
-        <v>39.2557687270679</v>
+        <v>39.5334708992003</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1442312729321031</v>
+        <v>0.1334708992002973</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02080266009161483</v>
+        <v>0.01781448093333593</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.9</v>
       </c>
       <c r="C47" t="n">
-        <v>39.56415861988053</v>
+        <v>39.7926743465075</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3358413801194686</v>
+        <v>-0.1073256534924951</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1127894326005494</v>
+        <v>0.01151879589759113</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.1</v>
       </c>
       <c r="C48" t="n">
-        <v>39.79025351510796</v>
+        <v>40.15851467971533</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3097464848920453</v>
+        <v>0.05851467971532998</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09594288490297802</v>
+        <v>0.003423967742187649</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.6</v>
       </c>
       <c r="C49" t="n">
-        <v>40.01247792801502</v>
+        <v>40.4026953359831</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.5875220719849779</v>
+        <v>-0.1973046640168974</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3451821850695215</v>
+        <v>0.03892913044282077</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.9</v>
       </c>
       <c r="C50" t="n">
-        <v>40.31626741864778</v>
+        <v>40.73678562107821</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.5837325813522227</v>
+        <v>-0.1632143789217864</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3407437265321293</v>
+        <v>0.02663893348682446</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.2</v>
       </c>
       <c r="C51" t="n">
-        <v>41.48393709049734</v>
+        <v>41.92965063556335</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2839370904973393</v>
+        <v>0.7296506355633454</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08062027136009424</v>
+        <v>0.5323900499779939</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1.879335802740034</v>
+        <v>-0.09224097631917516</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>11.20725098580535</v>
+        <v>4.780329254034106</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.2241450197161069</v>
+        <v>0.09560658508068212</v>
       </c>
     </row>
   </sheetData>
